--- a/Data/checkTotalCarbon.xlsx
+++ b/Data/checkTotalCarbon.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonesb\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,13 +23,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _m_k_-;\-* #,##0.00\ _m_k_-;_-* &quot;-&quot;??\ _m_k_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="183" formatCode="m/d"/>
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _m_k_-;\-* #,##0.00\ _m_k_-;_-* &quot;-&quot;??\ _m_k_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,11 +48,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -96,12 +88,12 @@
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -181,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -401,19 +393,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EU1"/>
+  <dimension ref="A1:EU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="A2" sqref="A2:DQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:151">
       <c r="A1" s="1">
         <v>50866029.841196641</v>
       </c>
@@ -866,9 +858,379 @@
       </c>
       <c r="EU1" s="1">
         <v>3929301053.4782791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:151">
+      <c r="A2">
+        <v>5969293.2316150069</v>
+      </c>
+      <c r="B2">
+        <v>7006615.0093304291</v>
+      </c>
+      <c r="C2">
+        <v>8065309.8783785626</v>
+      </c>
+      <c r="D2">
+        <v>9164003.2099896297</v>
+      </c>
+      <c r="E2">
+        <v>10240826.647422016</v>
+      </c>
+      <c r="F2">
+        <v>11246307.71152091</v>
+      </c>
+      <c r="G2">
+        <v>12644524.740994453</v>
+      </c>
+      <c r="H2">
+        <v>14083052.981527299</v>
+      </c>
+      <c r="I2">
+        <v>14411054.393759012</v>
+      </c>
+      <c r="J2">
+        <v>15741727.242726997</v>
+      </c>
+      <c r="K2">
+        <v>16718288.086463556</v>
+      </c>
+      <c r="L2">
+        <v>17408017.875977695</v>
+      </c>
+      <c r="M2">
+        <v>18470258.602389075</v>
+      </c>
+      <c r="N2">
+        <v>19225219.540161178</v>
+      </c>
+      <c r="O2">
+        <v>19621801.302160785</v>
+      </c>
+      <c r="P2">
+        <v>19959680.137939513</v>
+      </c>
+      <c r="Q2">
+        <v>21022508.571232058</v>
+      </c>
+      <c r="R2">
+        <v>21330781.260346606</v>
+      </c>
+      <c r="S2">
+        <v>21627080.109817319</v>
+      </c>
+      <c r="T2">
+        <v>22505336.009529486</v>
+      </c>
+      <c r="U2">
+        <v>23144743.975787513</v>
+      </c>
+      <c r="V2">
+        <v>22897669.033124767</v>
+      </c>
+      <c r="W2">
+        <v>23925243.133360013</v>
+      </c>
+      <c r="X2">
+        <v>25067302.977875628</v>
+      </c>
+      <c r="Y2">
+        <v>25500328.407103516</v>
+      </c>
+      <c r="Z2">
+        <v>25964219.319226421</v>
+      </c>
+      <c r="AA2">
+        <v>26411925.74337367</v>
+      </c>
+      <c r="AB2">
+        <v>26636808.860472832</v>
+      </c>
+      <c r="AC2">
+        <v>26980165.067985687</v>
+      </c>
+      <c r="AD2">
+        <v>27663428.094600331</v>
+      </c>
+      <c r="AE2">
+        <v>26951851.447902892</v>
+      </c>
+      <c r="AF2">
+        <v>25994869.409946784</v>
+      </c>
+      <c r="AG2">
+        <v>25268848.63102622</v>
+      </c>
+      <c r="AH2">
+        <v>25607952.911863144</v>
+      </c>
+      <c r="AI2">
+        <v>25865339.931591053</v>
+      </c>
+      <c r="AJ2">
+        <v>26377999.263908084</v>
+      </c>
+      <c r="AK2">
+        <v>27087243.36352038</v>
+      </c>
+      <c r="AL2">
+        <v>27507437.161225002</v>
+      </c>
+      <c r="AM2">
+        <v>27195609.767123345</v>
+      </c>
+      <c r="AN2">
+        <v>27803902.439761005</v>
+      </c>
+      <c r="AO2">
+        <v>28240678.734614365</v>
+      </c>
+      <c r="AP2">
+        <v>29160657.73713563</v>
+      </c>
+      <c r="AQ2">
+        <v>29480788.369399466</v>
+      </c>
+      <c r="AR2">
+        <v>29527051.897733297</v>
+      </c>
+      <c r="AS2">
+        <v>29691288.139627896</v>
+      </c>
+      <c r="AT2">
+        <v>29404361.162099004</v>
+      </c>
+      <c r="AU2">
+        <v>30219417.214867853</v>
+      </c>
+      <c r="AV2">
+        <v>30665015.700094443</v>
+      </c>
+      <c r="AW2">
+        <v>30968729.849461824</v>
+      </c>
+      <c r="AX2">
+        <v>30570634.028208133</v>
+      </c>
+      <c r="AY2">
+        <v>31344878.79068568</v>
+      </c>
+      <c r="AZ2">
+        <v>31582229.419341959</v>
+      </c>
+      <c r="BA2">
+        <v>31797480.639285337</v>
+      </c>
+      <c r="BB2">
+        <v>31999864.921941236</v>
+      </c>
+      <c r="BC2">
+        <v>32175723.087490924</v>
+      </c>
+      <c r="BD2">
+        <v>32564649.287257556</v>
+      </c>
+      <c r="BE2">
+        <v>32865954.388793681</v>
+      </c>
+      <c r="BF2">
+        <v>32529956.979148284</v>
+      </c>
+      <c r="BG2">
+        <v>32765989.62303111</v>
+      </c>
+      <c r="BH2">
+        <v>33333020.698314715</v>
+      </c>
+      <c r="BI2">
+        <v>33122732.826641481</v>
+      </c>
+      <c r="BJ2">
+        <v>33234471.547270942</v>
+      </c>
+      <c r="BK2">
+        <v>33521151.348574135</v>
+      </c>
+      <c r="BL2">
+        <v>34052063.420719206</v>
+      </c>
+      <c r="BM2">
+        <v>34567570.394350745</v>
+      </c>
+      <c r="BN2">
+        <v>35184551.393254966</v>
+      </c>
+      <c r="BO2">
+        <v>35574134.856296554</v>
+      </c>
+      <c r="BP2">
+        <v>35770524.977284387</v>
+      </c>
+      <c r="BQ2">
+        <v>36291639.572695687</v>
+      </c>
+      <c r="BR2">
+        <v>36656953.130408943</v>
+      </c>
+      <c r="BS2">
+        <v>36974714.816595919</v>
+      </c>
+      <c r="BT2">
+        <v>37663912.660413578</v>
+      </c>
+      <c r="BU2">
+        <v>38278785.135749727</v>
+      </c>
+      <c r="BV2">
+        <v>38811338.616426118</v>
+      </c>
+      <c r="BW2">
+        <v>38485555.640071161</v>
+      </c>
+      <c r="BX2">
+        <v>38408816.137498952</v>
+      </c>
+      <c r="BY2">
+        <v>39278391.78081575</v>
+      </c>
+      <c r="BZ2">
+        <v>39974564.554293886</v>
+      </c>
+      <c r="CA2">
+        <v>40561036.327353984</v>
+      </c>
+      <c r="CB2">
+        <v>40971593.584781602</v>
+      </c>
+      <c r="CC2">
+        <v>40628870.485649019</v>
+      </c>
+      <c r="CD2">
+        <v>40492525.589245036</v>
+      </c>
+      <c r="CE2">
+        <v>40684606.28659647</v>
+      </c>
+      <c r="CF2">
+        <v>41871472.740201637</v>
+      </c>
+      <c r="CG2">
+        <v>42616643.046175241</v>
+      </c>
+      <c r="CH2">
+        <v>43078696.152388699</v>
+      </c>
+      <c r="CI2">
+        <v>44077788.931963511</v>
+      </c>
+      <c r="CJ2">
+        <v>45085428.810712263</v>
+      </c>
+      <c r="CK2">
+        <v>45837067.292417981</v>
+      </c>
+      <c r="CL2">
+        <v>46467626.898796342</v>
+      </c>
+      <c r="CM2">
+        <v>46874944.337563798</v>
+      </c>
+      <c r="CN2">
+        <v>46876036.293781161</v>
+      </c>
+      <c r="CO2">
+        <v>47532013.874678172</v>
+      </c>
+      <c r="CP2">
+        <v>47936482.447319068</v>
+      </c>
+      <c r="CQ2">
+        <v>48394548.021792054</v>
+      </c>
+      <c r="CR2">
+        <v>48655838.350944228</v>
+      </c>
+      <c r="CS2">
+        <v>49136230.501479968</v>
+      </c>
+      <c r="CT2">
+        <v>49637038.019414105</v>
+      </c>
+      <c r="CU2">
+        <v>49988005.462928385</v>
+      </c>
+      <c r="CV2">
+        <v>50587675.207654148</v>
+      </c>
+      <c r="CW2">
+        <v>50973774.623364493</v>
+      </c>
+      <c r="CX2">
+        <v>50997920.692090124</v>
+      </c>
+      <c r="CY2">
+        <v>51500365.650743186</v>
+      </c>
+      <c r="CZ2">
+        <v>51709375.011842184</v>
+      </c>
+      <c r="DA2">
+        <v>52383881.146645524</v>
+      </c>
+      <c r="DB2">
+        <v>52799745.384847529</v>
+      </c>
+      <c r="DC2">
+        <v>53019893.744411528</v>
+      </c>
+      <c r="DD2">
+        <v>52940898.963858612</v>
+      </c>
+      <c r="DE2">
+        <v>51931811.593670391</v>
+      </c>
+      <c r="DF2">
+        <v>51218325.781587251</v>
+      </c>
+      <c r="DG2">
+        <v>51221884.247809403</v>
+      </c>
+      <c r="DH2">
+        <v>51477997.357425645</v>
+      </c>
+      <c r="DI2">
+        <v>51589094.285691716</v>
+      </c>
+      <c r="DJ2">
+        <v>51920095.612553276</v>
+      </c>
+      <c r="DK2">
+        <v>52164503.225681126</v>
+      </c>
+      <c r="DL2">
+        <v>52496899.558746852</v>
+      </c>
+      <c r="DM2">
+        <v>52866163.627599373</v>
+      </c>
+      <c r="DN2">
+        <v>53271560.899677567</v>
+      </c>
+      <c r="DO2">
+        <v>53712373.24296657</v>
+      </c>
+      <c r="DP2">
+        <v>54187898.514467321</v>
+      </c>
+      <c r="DQ2">
+        <v>54670919.374335147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>